--- a/acts.xlsx
+++ b/acts.xlsx
@@ -28,7 +28,7 @@
     <t>Target</t>
   </si>
   <si>
-    <t>ТОО "КазМехМонтаж"</t>
+    <t>ИП "Жаслан и Компания"</t>
   </si>
   <si>
     <t>Period Start</t>
